--- a/산출문서/3-5.테이블명세서.xlsx
+++ b/산출문서/3-5.테이블명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\HappyVirus\산출문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21999197-650D-4F94-90C6-58176F2EAFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804FFAC2-1ABD-40B7-B0E2-E89A35C78A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블목록" sheetId="1" r:id="rId1"/>
@@ -1138,7 +1138,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1244,6 +1244,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1251,6 +1272,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,78 +1355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1380,22 +1377,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>46473</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>15724</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53926</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D63033CF-B6CD-C427-9C56-EE28B4FE8F5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF250919-A451-7E65-8B80-DFC032627BF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,8 +1408,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="175260"/>
-          <a:ext cx="8687553" cy="5585944"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6759526" cy="4092295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1747,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1759,18 +1756,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="41" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1929,7 +1926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44B8B32-CB57-4307-A4B5-967039FA1E6E}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1941,72 +1938,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="43" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
@@ -2041,16 +2038,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="37">
         <v>20</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -2071,52 +2068,52 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="39">
         <v>100</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="62" t="s">
+      <c r="H8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="33"/>
-      <c r="D10" s="64"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -2125,10 +2122,10 @@
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="64"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -2209,40 +2206,40 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="24"/>
@@ -2281,227 +2278,233 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A24:J40"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:J5"/>
@@ -2510,12 +2513,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2527,9 +2524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -2543,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:J40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2555,72 +2550,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="43" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
@@ -2691,25 +2686,25 @@
       <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="2">
         <v>50</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="62" t="s">
+      <c r="H8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="17"/>
@@ -2721,25 +2716,25 @@
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="2">
         <v>50</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="62" t="s">
+      <c r="F9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="17"/>
@@ -2751,25 +2746,25 @@
       <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
-      </c>
-      <c r="E10" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="62" t="s">
+      <c r="F10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="62" t="s">
+      <c r="H10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="17"/>
@@ -2781,25 +2776,25 @@
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="2">
         <v>50</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="62" t="s">
+      <c r="F11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="62" t="s">
+      <c r="H11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="17"/>
@@ -2811,25 +2806,25 @@
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="2">
         <v>50</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="62" t="s">
+      <c r="F12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="62" t="s">
+      <c r="H12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="17"/>
@@ -2895,40 +2890,40 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="24"/>
@@ -2967,227 +2962,234 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A24:J40"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="A18:J18"/>
@@ -3195,13 +3197,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3225,72 +3220,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="43" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
@@ -3361,25 +3356,25 @@
       <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="2">
         <v>20</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="62" t="s">
+      <c r="H8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="17"/>
@@ -3391,25 +3386,25 @@
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="2">
         <v>50</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="62" t="s">
+      <c r="F9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="17"/>
@@ -3421,25 +3416,25 @@
       <c r="B10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="2">
         <v>50</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="62" t="s">
+      <c r="F10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="62" t="s">
+      <c r="H10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="17"/>
@@ -3451,40 +3446,40 @@
       <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="2">
         <v>50</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="62" t="s">
+      <c r="F11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="62" t="s">
+      <c r="H11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="37">
         <v>20</v>
       </c>
       <c r="E12" s="33" t="s">
@@ -3565,40 +3560,40 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="24"/>
@@ -3637,227 +3632,233 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A24:J40"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:J5"/>
@@ -3866,12 +3867,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3895,72 +3890,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="43" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
@@ -4031,25 +4026,25 @@
       <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="2">
         <v>20</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="62" t="s">
+      <c r="H8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="17"/>
@@ -4061,25 +4056,25 @@
       <c r="B9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="2">
         <v>50</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="62" t="s">
+      <c r="F9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="17"/>
@@ -4091,40 +4086,40 @@
       <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="35" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="2">
         <v>50</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="62" t="s">
+      <c r="F10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="62" t="s">
+      <c r="H10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="37">
         <v>20</v>
       </c>
       <c r="E11" s="33" t="s">
@@ -4217,40 +4212,40 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="24"/>
@@ -4289,227 +4284,233 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A24:J40"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:J5"/>
@@ -4518,12 +4519,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4547,72 +4542,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="43" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
@@ -4647,16 +4642,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="37">
         <v>20</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -4677,16 +4672,16 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="37" t="s">
         <v>70</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="37">
         <v>50</v>
       </c>
       <c r="E8" s="33" t="s">
@@ -4707,16 +4702,16 @@
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="37">
         <v>20</v>
       </c>
       <c r="E9" s="33" t="s">
@@ -4737,16 +4732,16 @@
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="37">
         <v>20</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -4767,10 +4762,10 @@
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="64"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -4851,40 +4846,40 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="24"/>
@@ -4923,227 +4918,233 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A24:J40"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:J5"/>
@@ -5152,12 +5153,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5181,72 +5176,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="43" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
@@ -5281,16 +5276,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="37">
         <v>20</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -5311,70 +5306,70 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="39">
         <v>50</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="62" t="s">
+      <c r="H8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="39">
         <v>50</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="62" t="s">
+      <c r="F9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="33"/>
-      <c r="D10" s="64"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -5383,10 +5378,10 @@
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="64"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -5467,40 +5462,40 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="24"/>
@@ -5539,227 +5534,233 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A24:J40"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:J5"/>
@@ -5768,12 +5769,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5797,72 +5792,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="43" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
@@ -5897,19 +5892,19 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="37" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="37">
         <v>50</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="35" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="33" t="s">
@@ -5927,100 +5922,100 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="39">
         <v>50</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="62" t="s">
+      <c r="H8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="39">
         <v>50</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="62" t="s">
+      <c r="F9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="39">
         <v>100</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="62" t="s">
+      <c r="F10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="62" t="s">
+      <c r="H10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="64"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -6101,40 +6096,40 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="24"/>
@@ -6173,227 +6168,233 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A24:J40"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:J5"/>
@@ -6402,12 +6403,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6431,72 +6426,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="43" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
@@ -6531,19 +6526,19 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="37" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="37">
         <v>50</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="35" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="33" t="s">
@@ -6561,100 +6556,100 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="39">
         <v>50</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="62" t="s">
+      <c r="H8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="39">
         <v>50</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="62" t="s">
+      <c r="F9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="39">
         <v>100</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="62" t="s">
+      <c r="F10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="62" t="s">
+      <c r="H10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="64"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -6735,40 +6730,40 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="24"/>
@@ -6807,227 +6802,233 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A24:J40"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:J5"/>
@@ -7036,12 +7037,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7065,72 +7060,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="47" t="s">
+      <c r="H3" s="68"/>
+      <c r="I3" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="48"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="43" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="69" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
@@ -7165,16 +7160,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="37">
         <v>20</v>
       </c>
       <c r="E7" s="33" t="s">
@@ -7195,70 +7190,70 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="39">
         <v>20</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="62" t="s">
+      <c r="H8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="39">
         <v>50</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="62" t="s">
+      <c r="F9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="62" t="s">
+      <c r="H9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="33"/>
-      <c r="D10" s="64"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -7267,10 +7262,10 @@
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="64"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -7351,40 +7346,40 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="52"/>
+      <c r="E19" s="59"/>
       <c r="F19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="24"/>
@@ -7423,227 +7418,233 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="58"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="58"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="58"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="58"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="58"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="50"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="58"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="50"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="50"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="58"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="58"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="58"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="50"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="58"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="50"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="58"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="50"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="58"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="50"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="50"/>
     </row>
     <row r="40" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A24:J40"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:J5"/>
@@ -7652,12 +7653,6 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
